--- a/Database/February2016Flash.xlsx
+++ b/Database/February2016Flash.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo 1\Documents\APC\SYSADD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo 1\Documents\GitHub\Forecast-Module-1\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -267,15 +267,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -591,10 +588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BD4"/>
+  <dimension ref="A1:BD2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -604,103 +601,103 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="S1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="T1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="U1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="V1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="W1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="X1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="Y1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="Z1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="AI1" s="1" t="s">
         <v>34</v>
@@ -770,69 +767,59 @@
       </c>
     </row>
     <row r="2" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="E2">
+      <c r="B2">
         <v>159</v>
       </c>
-      <c r="F2" s="2">
+      <c r="C2" s="2">
         <v>7569</v>
       </c>
+      <c r="D2" s="2">
+        <v>27838</v>
+      </c>
+      <c r="E2" s="2">
+        <v>2957</v>
+      </c>
+      <c r="F2">
+        <v>423</v>
+      </c>
+      <c r="G2" s="2">
+        <v>8060</v>
+      </c>
+      <c r="H2" s="2">
+        <v>5739</v>
+      </c>
+      <c r="I2" s="2">
+        <v>12227</v>
+      </c>
+      <c r="J2" s="2">
+        <v>8372</v>
+      </c>
+      <c r="K2">
+        <v>154</v>
+      </c>
       <c r="L2" s="2">
-        <v>27838</v>
+        <v>7569</v>
       </c>
       <c r="M2" s="2">
-        <v>2957</v>
-      </c>
-      <c r="N2">
-        <v>423</v>
+        <v>4850</v>
+      </c>
+      <c r="N2" s="2">
+        <v>10252</v>
       </c>
       <c r="O2" s="2">
-        <v>8060</v>
-      </c>
-      <c r="P2" s="2">
-        <v>5739</v>
-      </c>
-      <c r="U2" s="2">
-        <v>12227</v>
-      </c>
-      <c r="V2" s="2">
-        <v>8372</v>
-      </c>
-      <c r="W2">
-        <v>154</v>
-      </c>
-      <c r="X2" s="2">
-        <v>7569</v>
-      </c>
-      <c r="Y2" s="2">
-        <v>4850</v>
-      </c>
-      <c r="AD2" s="2">
-        <v>10252</v>
-      </c>
-      <c r="AE2" s="2">
         <v>7059</v>
       </c>
-      <c r="AF2">
+      <c r="P2">
         <v>124</v>
       </c>
-      <c r="AG2" s="2">
+      <c r="Q2" s="2">
         <v>7308</v>
       </c>
-      <c r="AH2" s="2">
+      <c r="R2" s="2">
         <v>4259</v>
       </c>
-    </row>
-    <row r="4" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A4:B4"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>